--- a/Configs/GameConfig/Datas/__beans__.xlsx
+++ b/Configs/GameConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15380"/>
+    <workbookView windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
